--- a/doc/录音查询设计文档.xlsx
+++ b/doc/录音查询设计文档.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>系统流程图</t>
     <phoneticPr fontId="4"/>
@@ -35,10 +35,6 @@
   </si>
   <si>
     <t>2.1.1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>检索员工基本信息并查看编辑一名员工的详细信息</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -132,7 +128,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,16 +203,8 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -262,12 +250,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="45"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,7 +389,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -611,18 +593,15 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -631,12 +610,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -708,15 +681,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -727,8 +700,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7581900" y="3248025"/>
-          <a:ext cx="1552575" cy="476250"/>
+          <a:off x="6772275" y="3333750"/>
+          <a:ext cx="1352550" cy="533400"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -760,16 +733,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -780,7 +753,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="171450" y="4362449"/>
+          <a:off x="1762125" y="4210049"/>
           <a:ext cx="1228725" cy="676275"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
@@ -816,14 +789,14 @@
     <xdr:from>
       <xdr:col>31</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -834,8 +807,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="9448800" y="3209925"/>
-          <a:ext cx="1609725" cy="542925"/>
+          <a:off x="8582025" y="3295650"/>
+          <a:ext cx="2219325" cy="600075"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
           <a:avLst/>
@@ -878,13 +851,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
@@ -898,7 +871,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="152400" y="2028825"/>
+          <a:off x="1809750" y="2028825"/>
           <a:ext cx="1257300" cy="676275"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
@@ -948,15 +921,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -967,8 +940,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5934075" y="4143375"/>
-          <a:ext cx="1323975" cy="495300"/>
+          <a:off x="5143500" y="4257675"/>
+          <a:ext cx="1295400" cy="552450"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -1003,13 +976,13 @@
       <xdr:col>18</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1020,8 +993,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5972175" y="3190875"/>
-          <a:ext cx="1276350" cy="600075"/>
+          <a:off x="5172075" y="3267075"/>
+          <a:ext cx="1247775" cy="676275"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -1054,16 +1027,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1074,8 +1047,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="361950" y="3181350"/>
-          <a:ext cx="1533525" cy="600075"/>
+          <a:off x="1752600" y="3286125"/>
+          <a:ext cx="1257300" cy="676275"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -1115,29 +1088,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>80963</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>100013</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="直接箭头连接符 10"/>
+        <xdr:cNvPr id="12" name="直接箭头连接符 11"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="7" idx="2"/>
-          <a:endCxn id="10" idx="0"/>
+          <a:stCxn id="10" idx="3"/>
+          <a:endCxn id="9" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="485775" y="3000374"/>
-          <a:ext cx="600075" cy="9525"/>
+        <a:xfrm flipV="1">
+          <a:off x="3009900" y="3605213"/>
+          <a:ext cx="2162175" cy="19050"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1168,29 +1141,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>119063</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>128588</xdr:rowOff>
+      <xdr:rowOff>80963</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="直接箭头连接符 11"/>
+        <xdr:cNvPr id="13" name="直接箭头连接符 12"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="10" idx="3"/>
-          <a:endCxn id="9" idx="1"/>
+          <a:stCxn id="9" idx="3"/>
+          <a:endCxn id="4" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1895475" y="3481388"/>
-          <a:ext cx="4076700" cy="9525"/>
+        <a:xfrm flipV="1">
+          <a:off x="6419850" y="3600450"/>
+          <a:ext cx="352425" cy="4763"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1221,29 +1194,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>71438</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>128588</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="直接箭头连接符 12"/>
+        <xdr:cNvPr id="14" name="直接箭头连接符 13"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="9" idx="3"/>
-          <a:endCxn id="4" idx="1"/>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="6" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7248525" y="3486150"/>
-          <a:ext cx="333375" cy="4763"/>
+          <a:off x="8124825" y="3595688"/>
+          <a:ext cx="457200" cy="4762"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1274,29 +1247,82 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>119063</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>85726</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>23814</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="直接箭头连接符 13"/>
+        <xdr:cNvPr id="15" name="直接箭头连接符 46"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="4" idx="3"/>
-          <a:endCxn id="6" idx="2"/>
+          <a:stCxn id="6" idx="3"/>
+          <a:endCxn id="8" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="9134475" y="3481388"/>
-          <a:ext cx="314325" cy="4762"/>
+        <a:xfrm rot="5400000">
+          <a:off x="7746207" y="2588418"/>
+          <a:ext cx="638175" cy="3252788"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>166686</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直接箭头连接符 15"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="1"/>
+          <a:endCxn id="5" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="2990850" y="4533899"/>
+          <a:ext cx="2152650" cy="14287"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1327,176 +1353,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>76201</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>23814</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="直接箭头连接符 46"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="6" idx="3"/>
-          <a:endCxn id="8" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="8436770" y="2574130"/>
-          <a:ext cx="638175" cy="2995613"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="直接箭头连接符 15"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="8" idx="1"/>
-          <a:endCxn id="5" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000" flipV="1">
-          <a:off x="1400175" y="4676775"/>
-          <a:ext cx="3733800" cy="23812"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>233364</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>238126</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="直接箭头连接符 16"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="5" idx="0"/>
-          <a:endCxn id="10" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="597695" y="4169569"/>
-          <a:ext cx="380999" cy="4762"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1507,7 +1373,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="133350" y="5353051"/>
+          <a:off x="1724025" y="5305426"/>
           <a:ext cx="1295400" cy="781050"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
@@ -1553,29 +1419,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>228601</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>233364</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>85724</xdr:colOff>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="直接箭头连接符 18"/>
+        <xdr:cNvPr id="20" name="直接箭头连接符 19"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="5" idx="2"/>
-          <a:endCxn id="18" idx="0"/>
+          <a:stCxn id="18" idx="3"/>
+          <a:endCxn id="21" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="626269" y="5193506"/>
-          <a:ext cx="314327" cy="4763"/>
+        <a:xfrm flipV="1">
+          <a:off x="3019425" y="5676901"/>
+          <a:ext cx="2038349" cy="19050"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1606,69 +1472,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>133351</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>104774</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>161926</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="20" name="直接箭头连接符 19"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="18" idx="3"/>
-          <a:endCxn id="21" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1428750" y="5715001"/>
-          <a:ext cx="3648074" cy="28575"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>104774</xdr:colOff>
+      <xdr:colOff>85724</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>123826</xdr:rowOff>
+      <xdr:rowOff>85726</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1679,8 +1492,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5876924" y="5010151"/>
-          <a:ext cx="1438276" cy="628649"/>
+          <a:off x="5057774" y="5324476"/>
+          <a:ext cx="1409701" cy="704849"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -1703,7 +1516,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1000"/>
-            <a:t>响应查看录音打分的星系信息</a:t>
+            <a:t>响应查看录音打分的详细信息</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1000"/>
         </a:p>
@@ -1714,15 +1527,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:colOff>200025</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1733,8 +1546,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7600950" y="5086350"/>
-          <a:ext cx="1552575" cy="476250"/>
+          <a:off x="6858000" y="5400675"/>
+          <a:ext cx="1352550" cy="533400"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -1767,15 +1580,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>133351</xdr:rowOff>
+      <xdr:rowOff>95251</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1787,8 +1600,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7315200" y="5324475"/>
-          <a:ext cx="285750" cy="1"/>
+          <a:off x="6467475" y="5667375"/>
+          <a:ext cx="390525" cy="9526"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1820,15 +1633,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1839,8 +1652,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="9420225" y="5048250"/>
-          <a:ext cx="1609725" cy="542925"/>
+          <a:off x="8534400" y="5372100"/>
+          <a:ext cx="2295525" cy="600075"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
           <a:avLst/>
@@ -1884,15 +1697,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:colOff>200025</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>128588</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:colOff>247650</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>90488</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1903,9 +1716,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="9153525" y="5319713"/>
-          <a:ext cx="266700" cy="4762"/>
+        <a:xfrm>
+          <a:off x="8210550" y="5667375"/>
+          <a:ext cx="323850" cy="4763"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1937,15 +1750,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1956,7 +1769,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5105400" y="6153150"/>
+          <a:off x="5181600" y="6543675"/>
           <a:ext cx="1295400" cy="552450"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
@@ -1990,15 +1803,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>47626</xdr:colOff>
+      <xdr:colOff>123826</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>233364</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>14289</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2010,8 +1823,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="7808120" y="4612481"/>
-          <a:ext cx="409575" cy="3224213"/>
+          <a:off x="7655720" y="4793456"/>
+          <a:ext cx="847725" cy="3205163"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -2043,15 +1856,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2062,7 +1875,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1809750" y="6105525"/>
+          <a:off x="1733550" y="6486525"/>
           <a:ext cx="1276350" cy="676275"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
@@ -2096,16 +1909,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>4763</xdr:rowOff>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2117,8 +1930,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="3086100" y="6429375"/>
-          <a:ext cx="2019300" cy="14288"/>
+          <a:off x="3009900" y="6819899"/>
+          <a:ext cx="2171700" cy="4763"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2145,126 +1958,6 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="AutoShape 142"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="104775" y="8448675"/>
-          <a:ext cx="1257300" cy="657225"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartAlternateProcess">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="339966"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000"/>
-            <a:t>录音查询</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1000"/>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000"/>
-            <a:t>需要有权限的控制</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1000"/>
-            <a:t>)</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>152401</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="AutoShape 202"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5095875" y="8553450"/>
-          <a:ext cx="1409701" cy="704849"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartAlternateProcess">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFCC00"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000"/>
-            <a:t>响应录音查询的请求</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1000"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -2601,87 +2294,34 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>19051</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>157163</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="42" name="直接箭头连接符 183"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1381125" y="8601075"/>
-          <a:ext cx="4438651" cy="223838"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector4">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 42060"/>
-            <a:gd name="adj2" fmla="val 248936"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="AutoShape 123"/>
+        <xdr:cNvPr id="76" name="AutoShape 124"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6819900" y="8639175"/>
-          <a:ext cx="1352550" cy="533400"/>
+          <a:off x="1828800" y="9077325"/>
+          <a:ext cx="1276350" cy="676275"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="99CC00"/>
+          <a:srgbClr val="3366FF"/>
         </a:solidFill>
         <a:ln w="9525">
           <a:solidFill>
@@ -2698,8 +2338,9 @@
         <a:p>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1000"/>
-            <a:t>检索录音</a:t>
+            <a:t>录音的播放</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1000"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2707,81 +2348,82 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>152401</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>68263</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="45" name="直接箭头连接符 44"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="35" idx="3"/>
-          <a:endCxn id="44" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6505576" y="8905875"/>
-          <a:ext cx="314324" cy="1588"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>123826</xdr:colOff>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="AutoShape 127"/>
+        <xdr:cNvPr id="95" name="AutoShape 202"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8639175" y="8582025"/>
-          <a:ext cx="2219325" cy="619125"/>
+          <a:off x="5038725" y="7724775"/>
+          <a:ext cx="1438276" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFCC00"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000"/>
+            <a:t>响应保存录音打分的请求，执行保存录音打分的业务。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="97" name="AutoShape 127"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8839200" y="7743825"/>
+          <a:ext cx="1609725" cy="542925"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
           <a:avLst/>
@@ -2813,10 +2455,35 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000"/>
-            <a:t>录音的信息</a:t>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>录音打分的详细信息。</a:t>
           </a:r>
+          <a:endParaRPr lang="zh-CN" sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2824,87 +2491,34 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>52388</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="47" name="直接箭头连接符 46"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="44" idx="3"/>
-          <a:endCxn id="46" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="8172450" y="8891588"/>
-          <a:ext cx="466725" cy="14287"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="AutoShape 156"/>
+        <xdr:cNvPr id="98" name="AutoShape 142"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5934075" y="9201150"/>
-          <a:ext cx="1323975" cy="495300"/>
+          <a:off x="1752600" y="7667625"/>
+          <a:ext cx="1238250" cy="781050"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="7030A0"/>
+          <a:srgbClr val="339966"/>
         </a:solidFill>
         <a:ln w="9525">
           <a:solidFill>
@@ -2921,7 +2535,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1000"/>
-            <a:t>将查询到的录音数据整理并展现</a:t>
+            <a:t>点击确定，将当前录音打分的详细信息更新到数据库中</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2930,37 +2544,33 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>80963</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="49" name="直接箭头连接符 46"/>
+        <xdr:cNvPr id="100" name="直接箭头连接符 99"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="46" idx="3"/>
-          <a:endCxn id="48" idx="3"/>
+          <a:stCxn id="98" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="7565232" y="8065294"/>
-          <a:ext cx="1047750" cy="3319463"/>
+        <a:xfrm flipV="1">
+          <a:off x="2990850" y="8048625"/>
+          <a:ext cx="1971675" cy="9525"/>
         </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
+        <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
           <a:tailEnd type="arrow"/>
         </a:ln>
       </xdr:spPr>
@@ -2983,82 +2593,279 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>123826</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>33338</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>52388</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="76" name="AutoShape 124"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1847850" y="9934575"/>
-          <a:ext cx="1276350" cy="676275"/>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="102" name="直接箭头连接符 101"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="95" idx="3"/>
+          <a:endCxn id="97" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6477001" y="8015288"/>
+          <a:ext cx="2362199" cy="19050"/>
         </a:xfrm>
-        <a:prstGeom prst="flowChartAlternateProcess">
+        <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="3366FF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
         </a:ln>
       </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000"/>
-            <a:t>录音的显示及播放</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1000"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>85726</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>61914</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>123826</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>252414</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="80" name="直接箭头连接符 79"/>
+        <xdr:cNvPr id="105" name="形状 104"/>
         <xdr:cNvCxnSpPr>
-          <a:endCxn id="76" idx="3"/>
+          <a:stCxn id="97" idx="1"/>
+          <a:endCxn id="26" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="3124201" y="10272714"/>
-          <a:ext cx="1971675" cy="33337"/>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="7598570" y="5698331"/>
+          <a:ext cx="923925" cy="3167063"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>161132</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>38893</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>162720</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>29368</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="107" name="直接箭头连接符 106"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="29" idx="2"/>
+          <a:endCxn id="98" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="2119313" y="7415212"/>
+          <a:ext cx="504825" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>166689</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>171451</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>171448</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="122" name="直接箭头连接符 121"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="2"/>
+          <a:endCxn id="5" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="2255045" y="4083843"/>
+          <a:ext cx="247649" cy="4762"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>166688</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>66677</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="124" name="直接箭头连接符 123"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="2"/>
+          <a:endCxn id="18" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="2164556" y="5093494"/>
+          <a:ext cx="419102" cy="4763"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>161132</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>162719</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>162720</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>48418</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="126" name="直接箭头连接符 125"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="18" idx="2"/>
+          <a:endCxn id="29" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="2171701" y="6286500"/>
+          <a:ext cx="400049" cy="1588"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3087,27 +2894,27 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>114301</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="95" name="AutoShape 202"/>
+        <xdr:cNvPr id="133" name="AutoShape 202"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5029200" y="7219950"/>
-          <a:ext cx="1438276" cy="619125"/>
+          <a:off x="5162550" y="2009775"/>
+          <a:ext cx="1247775" cy="676275"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -3130,7 +2937,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1000"/>
-            <a:t>响应保存员工详情的请求，执行保存员工详细信息的业务。</a:t>
+            <a:t>响应登录信息的请求并执行搜索</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1000"/>
         </a:p>
@@ -3140,27 +2947,80 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="97" name="AutoShape 127"/>
+        <xdr:cNvPr id="134" name="AutoShape 123"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8810625" y="7267575"/>
+          <a:off x="6781800" y="2057400"/>
+          <a:ext cx="1352550" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="99CC00"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000"/>
+            <a:t>检索登录信息</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="137" name="AutoShape 127"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8820150" y="2038350"/>
           <a:ext cx="1609725" cy="542925"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
@@ -3195,7 +3055,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1000"/>
-            <a:t>录音打分的详细信息。</a:t>
+            <a:t>符合条件的登录人</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3204,34 +3064,184 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>42863</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="139" name="直接箭头连接符 138"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="3"/>
+          <a:endCxn id="133" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3067050" y="2347913"/>
+          <a:ext cx="2095500" cy="19050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="141" name="直接箭头连接符 140"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="133" idx="3"/>
+          <a:endCxn id="134" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6410325" y="2324100"/>
+          <a:ext cx="371475" cy="23813"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>157163</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="143" name="直接箭头连接符 142"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="134" idx="3"/>
+          <a:endCxn id="137" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8134350" y="2309813"/>
+          <a:ext cx="685800" cy="14287"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="98" name="AutoShape 142"/>
+        <xdr:cNvPr id="149" name="AutoShape 156"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1838325" y="7172325"/>
-          <a:ext cx="1238250" cy="781050"/>
+          <a:off x="5153025" y="2819400"/>
+          <a:ext cx="1295400" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="339966"/>
+          <a:srgbClr val="7030A0"/>
         </a:solidFill>
         <a:ln w="9525">
           <a:solidFill>
@@ -3248,7 +3258,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1000"/>
-            <a:t>点击确定，将当前录音打分的详细信息更新到数据库中</a:t>
+            <a:t>将返回的数据整理</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3257,128 +3267,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>233364</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="100" name="直接箭头连接符 99"/>
+        <xdr:cNvPr id="151" name="形状 150"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="98" idx="3"/>
+          <a:stCxn id="137" idx="3"/>
+          <a:endCxn id="149" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3076575" y="7553325"/>
-          <a:ext cx="1971675" cy="9525"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>114301</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>61913</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>71438</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="102" name="直接箭头连接符 101"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="95" idx="3"/>
-          <a:endCxn id="97" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6467476" y="7529513"/>
-          <a:ext cx="2343149" cy="9525"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>223838</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="105" name="形状 104"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="97" idx="1"/>
-          <a:endCxn id="26" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipV="1">
-          <a:off x="7589044" y="5241131"/>
-          <a:ext cx="838200" cy="3214688"/>
+        <a:xfrm rot="5400000">
+          <a:off x="7834313" y="1195387"/>
+          <a:ext cx="404813" cy="3176588"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -3407,30 +3318,30 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:colOff>171451</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>180976</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="107" name="直接箭头连接符 106"/>
+        <xdr:cNvPr id="153" name="形状 152"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="29" idx="2"/>
-          <a:endCxn id="98" idx="0"/>
+          <a:stCxn id="149" idx="1"/>
+          <a:endCxn id="10" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="2257425" y="6972299"/>
-          <a:ext cx="390525" cy="9525"/>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="2381251" y="2986087"/>
+          <a:ext cx="2771775" cy="300037"/>
         </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
+        <a:prstGeom prst="bentConnector2">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
@@ -3456,34 +3367,33 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>171449</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>180974</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>171449</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>61913</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="110" name="形状 109"/>
+        <xdr:cNvPr id="172" name="肘形连接符 171"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="5" idx="1"/>
-          <a:endCxn id="31" idx="0"/>
+          <a:stCxn id="18" idx="1"/>
+          <a:endCxn id="76" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipH="1" flipV="1">
-          <a:off x="171449" y="4700587"/>
-          <a:ext cx="561975" cy="3748088"/>
+          <a:off x="1724024" y="5695951"/>
+          <a:ext cx="104775" cy="3719512"/>
         </a:xfrm>
-        <a:prstGeom prst="bentConnector4">
+        <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -40678"/>
-            <a:gd name="adj2" fmla="val 54511"/>
+            <a:gd name="adj1" fmla="val -218182"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -3821,8 +3731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AQ69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="AB41" sqref="AB41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4114,7 +4024,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -4162,9 +4072,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="8" t="s">
-        <v>5</v>
-      </c>
+      <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
@@ -4253,52 +4161,52 @@
     </row>
     <row r="10" spans="1:43">
       <c r="A10" s="29"/>
-      <c r="B10" s="69" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="70"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="70"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
       <c r="F10" s="30"/>
       <c r="G10" s="31"/>
-      <c r="H10" s="71"/>
-      <c r="I10" s="72"/>
-      <c r="J10" s="72"/>
-      <c r="K10" s="72"/>
+      <c r="H10" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="71"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="71"/>
       <c r="L10" s="32"/>
       <c r="M10" s="33"/>
-      <c r="N10" s="73"/>
-      <c r="O10" s="73"/>
-      <c r="P10" s="73"/>
-      <c r="Q10" s="73"/>
+      <c r="N10" s="72"/>
+      <c r="O10" s="72"/>
+      <c r="P10" s="72"/>
+      <c r="Q10" s="72"/>
       <c r="R10" s="34"/>
       <c r="S10" s="35"/>
-      <c r="T10" s="74" t="s">
+      <c r="T10" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="U10" s="73"/>
+      <c r="V10" s="73"/>
+      <c r="W10" s="73"/>
+      <c r="X10" s="36"/>
+      <c r="Y10" s="37"/>
+      <c r="Z10" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="U10" s="74"/>
-      <c r="V10" s="74"/>
-      <c r="W10" s="74"/>
-      <c r="X10" s="36"/>
-      <c r="Y10" s="37"/>
-      <c r="Z10" s="75" t="s">
+      <c r="AA10" s="74"/>
+      <c r="AB10" s="74"/>
+      <c r="AC10" s="74"/>
+      <c r="AD10" s="38"/>
+      <c r="AE10" s="39"/>
+      <c r="AF10" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="AA10" s="75"/>
-      <c r="AB10" s="75"/>
-      <c r="AC10" s="75"/>
-      <c r="AD10" s="38"/>
-      <c r="AE10" s="39"/>
-      <c r="AF10" s="76" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG10" s="76"/>
-      <c r="AH10" s="76"/>
-      <c r="AI10" s="76"/>
-      <c r="AJ10" s="76"/>
-      <c r="AK10" s="76"/>
-      <c r="AL10" s="76"/>
-      <c r="AM10" s="76"/>
+      <c r="AG10" s="69"/>
+      <c r="AH10" s="69"/>
+      <c r="AI10" s="69"/>
+      <c r="AJ10" s="69"/>
+      <c r="AK10" s="69"/>
+      <c r="AL10" s="69"/>
+      <c r="AM10" s="69"/>
       <c r="AN10" s="40"/>
       <c r="AO10" s="3"/>
       <c r="AP10" s="3"/>
@@ -5719,7 +5627,7 @@
       <c r="Q42" s="63"/>
       <c r="R42" s="34"/>
       <c r="S42" s="35"/>
-      <c r="T42" s="77"/>
+      <c r="T42" s="64"/>
       <c r="U42" s="64"/>
       <c r="V42" s="64"/>
       <c r="W42" s="64"/>
@@ -6960,9 +6868,8 @@
       <c r="AQ69" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="5">
     <mergeCell ref="AF10:AM10"/>
-    <mergeCell ref="B10:E10"/>
     <mergeCell ref="H10:K10"/>
     <mergeCell ref="N10:Q10"/>
     <mergeCell ref="T10:W10"/>
